--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Thbs2</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Thbs2</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H2">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I2">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J2">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>372.3597774948363</v>
+        <v>490.8872285184505</v>
       </c>
       <c r="R2">
-        <v>1489.439109979345</v>
+        <v>1963.548914073802</v>
       </c>
       <c r="S2">
-        <v>0.005554256228099308</v>
+        <v>0.006989293410663752</v>
       </c>
       <c r="T2">
-        <v>0.002995706077547542</v>
+        <v>0.003982666221817097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H3">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I3">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J3">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>268.70696429738</v>
+        <v>289.249451965048</v>
       </c>
       <c r="R3">
-        <v>1612.24178578428</v>
+        <v>1735.496711790288</v>
       </c>
       <c r="S3">
-        <v>0.004008132511044585</v>
+        <v>0.004118357885901742</v>
       </c>
       <c r="T3">
-        <v>0.003242698868178</v>
+        <v>0.003520107944640707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H4">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I4">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J4">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>191.2554546815325</v>
+        <v>189.0256111707276</v>
       </c>
       <c r="R4">
-        <v>1147.532728089195</v>
+        <v>1134.153667024366</v>
       </c>
       <c r="S4">
-        <v>0.00285283713367134</v>
+        <v>0.002691362459336418</v>
       </c>
       <c r="T4">
-        <v>0.002308030415401932</v>
+        <v>0.002300403859375496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H5">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I5">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J5">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>316.5455963672013</v>
+        <v>419.0012420655764</v>
       </c>
       <c r="R5">
-        <v>1266.182385468805</v>
+        <v>1676.004968262306</v>
       </c>
       <c r="S5">
-        <v>0.004721711249073671</v>
+        <v>0.00596577472399812</v>
       </c>
       <c r="T5">
-        <v>0.002546670247892944</v>
+        <v>0.003399440842472965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H6">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I6">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J6">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>275.42429404889</v>
+        <v>145.7696543607756</v>
       </c>
       <c r="R6">
-        <v>1652.54576429334</v>
+        <v>874.6179261646539</v>
       </c>
       <c r="S6">
-        <v>0.004108330687280306</v>
+        <v>0.002075480528946392</v>
       </c>
       <c r="T6">
-        <v>0.003323762184267914</v>
+        <v>0.001773987521555963</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H7">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I7">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J7">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>180.1775668241209</v>
+        <v>210.0914141183073</v>
       </c>
       <c r="R7">
-        <v>1081.065400944725</v>
+        <v>1260.548484709844</v>
       </c>
       <c r="S7">
-        <v>0.002687595259159082</v>
+        <v>0.002991299123356443</v>
       </c>
       <c r="T7">
-        <v>0.002174344805462638</v>
+        <v>0.002556770465473581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H8">
         <v>244.890976</v>
       </c>
       <c r="I8">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J8">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>13434.496133387</v>
+        <v>16453.06189427079</v>
       </c>
       <c r="R8">
-        <v>80606.97680032201</v>
+        <v>98718.37136562474</v>
       </c>
       <c r="S8">
-        <v>0.2003939155895419</v>
+        <v>0.2342600711571527</v>
       </c>
       <c r="T8">
-        <v>0.1621246606696174</v>
+        <v>0.2002304705997726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H9">
         <v>244.890976</v>
       </c>
       <c r="I9">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J9">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>9694.770732634706</v>
+        <v>9694.770732634708</v>
       </c>
       <c r="R9">
-        <v>87252.93659371235</v>
+        <v>87252.93659371238</v>
       </c>
       <c r="S9">
-        <v>0.1446107876742351</v>
+        <v>0.1380349564277832</v>
       </c>
       <c r="T9">
-        <v>0.175491667088881</v>
+        <v>0.1769751294889648</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H10">
         <v>244.890976</v>
       </c>
       <c r="I10">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J10">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>6900.371150973342</v>
+        <v>6335.569351805721</v>
       </c>
       <c r="R10">
-        <v>62103.34035876008</v>
+        <v>57020.12416625149</v>
       </c>
       <c r="S10">
-        <v>0.1029284894822507</v>
+        <v>0.09020636625039959</v>
       </c>
       <c r="T10">
-        <v>0.1249083315338222</v>
+        <v>0.1156539166674465</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H11">
         <v>244.890976</v>
       </c>
       <c r="I11">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J11">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>11420.75714795705</v>
+        <v>14043.66006890757</v>
       </c>
       <c r="R11">
-        <v>68524.5428877423</v>
+        <v>84261.9604134454</v>
       </c>
       <c r="S11">
-        <v>0.1703562397244418</v>
+        <v>0.1999548064785883</v>
       </c>
       <c r="T11">
-        <v>0.1378232840903604</v>
+        <v>0.1709085325643714</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H12">
         <v>244.890976</v>
       </c>
       <c r="I12">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J12">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>9937.127576815057</v>
+        <v>4885.759918307096</v>
       </c>
       <c r="R12">
-        <v>89434.14819133554</v>
+        <v>43971.83926476387</v>
       </c>
       <c r="S12">
-        <v>0.1482258720430883</v>
+        <v>0.06956385829423829</v>
       </c>
       <c r="T12">
-        <v>0.1798787338683397</v>
+        <v>0.08918808067154856</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H13">
         <v>244.890976</v>
       </c>
       <c r="I13">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J13">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>6500.688235198275</v>
+        <v>7041.631639869532</v>
       </c>
       <c r="R13">
-        <v>58506.19411678448</v>
+        <v>63374.68475882578</v>
       </c>
       <c r="S13">
-        <v>0.09696667121298468</v>
+        <v>0.100259340153136</v>
       </c>
       <c r="T13">
-        <v>0.1176733980701353</v>
+        <v>0.1285428717859766</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H14">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I14">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J14">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>1416.79634855335</v>
+        <v>2820.539295879753</v>
       </c>
       <c r="R14">
-        <v>5667.185394213399</v>
+        <v>11282.15718351901</v>
       </c>
       <c r="S14">
-        <v>0.02113345860243976</v>
+        <v>0.04015907436563016</v>
       </c>
       <c r="T14">
-        <v>0.01139839931306032</v>
+        <v>0.0228835991820591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H15">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I15">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J15">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>1022.4064704536</v>
+        <v>1661.969181886012</v>
       </c>
       <c r="R15">
-        <v>6134.438822721598</v>
+        <v>9971.815091316072</v>
       </c>
       <c r="S15">
-        <v>0.01525059324175981</v>
+        <v>0.02366325619580777</v>
       </c>
       <c r="T15">
-        <v>0.0123381852540622</v>
+        <v>0.02022583234353682</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H16">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I16">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J16">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>727.7102582258998</v>
+        <v>1086.103148056713</v>
       </c>
       <c r="R16">
-        <v>4366.261549355399</v>
+        <v>6516.618888340279</v>
       </c>
       <c r="S16">
-        <v>0.01085479549159686</v>
+        <v>0.01546402744867628</v>
       </c>
       <c r="T16">
-        <v>0.008781853633309994</v>
+        <v>0.01321765795648146</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H17">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I17">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J17">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>1204.42827660115</v>
+        <v>2407.496874251972</v>
       </c>
       <c r="R17">
-        <v>4817.7131064046</v>
+        <v>9629.987497007889</v>
       </c>
       <c r="S17">
-        <v>0.0179656978571044</v>
+        <v>0.03427814182533869</v>
       </c>
       <c r="T17">
-        <v>0.009689857299998555</v>
+        <v>0.01953250344106924</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H18">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I18">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J18">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>1047.9653219708</v>
+        <v>837.5631191552251</v>
       </c>
       <c r="R18">
-        <v>6287.791931824799</v>
+        <v>5025.378714931351</v>
       </c>
       <c r="S18">
-        <v>0.01563183852871738</v>
+        <v>0.01192529373272657</v>
       </c>
       <c r="T18">
-        <v>0.01264662407366432</v>
+        <v>0.01019297554358936</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H19">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I19">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J19">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>685.5598649378334</v>
+        <v>1207.143015384764</v>
       </c>
       <c r="R19">
-        <v>4113.359189627</v>
+        <v>7242.858092308586</v>
       </c>
       <c r="S19">
-        <v>0.01022606462809664</v>
+        <v>0.0171874032017934</v>
       </c>
       <c r="T19">
-        <v>0.008273191593359272</v>
+        <v>0.01469068891887448</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H20">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I20">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J20">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>315.8383197483941</v>
+        <v>4.1877239320235</v>
       </c>
       <c r="R20">
-        <v>1895.029918490365</v>
+        <v>25.126343592141</v>
       </c>
       <c r="S20">
-        <v>0.004711161249308852</v>
+        <v>5.962516354745749E-05</v>
       </c>
       <c r="T20">
-        <v>0.003811470107049045</v>
+        <v>5.096376218842145E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H21">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I21">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J21">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>227.9192362809733</v>
+        <v>2.467566442856</v>
       </c>
       <c r="R21">
-        <v>2051.273126528759</v>
+        <v>22.208097985704</v>
       </c>
       <c r="S21">
-        <v>0.003399727666973345</v>
+        <v>3.51334173665107E-05</v>
       </c>
       <c r="T21">
-        <v>0.004125721777197974</v>
+        <v>4.504468468522362E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H22">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I22">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J22">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>162.224292472535</v>
+        <v>1.612564005900333</v>
       </c>
       <c r="R22">
-        <v>1460.018632252815</v>
+        <v>14.513076053103</v>
       </c>
       <c r="S22">
-        <v>0.002419797575550641</v>
+        <v>2.295982116855811E-05</v>
       </c>
       <c r="T22">
-        <v>0.002936532726089797</v>
+        <v>2.943687185843308E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H23">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I23">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J23">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>268.4963181388641</v>
+        <v>3.5744697091455</v>
       </c>
       <c r="R23">
-        <v>1610.977908833185</v>
+        <v>21.446818254873</v>
       </c>
       <c r="S23">
-        <v>0.004004990434997239</v>
+        <v>5.089359863801958E-05</v>
       </c>
       <c r="T23">
-        <v>0.003240156834845922</v>
+        <v>4.350058102291949E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H24">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I24">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J24">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>233.6169251027533</v>
+        <v>1.243550523756333</v>
       </c>
       <c r="R24">
-        <v>2102.55232592478</v>
+        <v>11.191954713807</v>
       </c>
       <c r="S24">
-        <v>0.003484716501796092</v>
+        <v>1.770577635060823E-05</v>
       </c>
       <c r="T24">
-        <v>0.004228859534393406</v>
+        <v>2.270064151460727E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H25">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I25">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J25">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>152.8279459853139</v>
+        <v>1.792274868244667</v>
       </c>
       <c r="R25">
-        <v>1375.451513867825</v>
+        <v>16.130473814202</v>
       </c>
       <c r="S25">
-        <v>0.002279638194349082</v>
+        <v>2.551855945514757E-05</v>
       </c>
       <c r="T25">
-        <v>0.002766443040107192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.346763</v>
-      </c>
-      <c r="I26">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J26">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>164.5772705</v>
-      </c>
-      <c r="N26">
-        <v>329.154541</v>
-      </c>
-      <c r="O26">
-        <v>0.2320765473082729</v>
-      </c>
-      <c r="P26">
-        <v>0.1805598029509348</v>
-      </c>
-      <c r="Q26">
-        <v>19.02310268346383</v>
-      </c>
-      <c r="R26">
-        <v>114.138616100783</v>
-      </c>
-      <c r="S26">
-        <v>0.0002837556388830609</v>
-      </c>
-      <c r="T26">
-        <v>0.0002295667836604096</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H27">
-        <v>0.346763</v>
-      </c>
-      <c r="I27">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J27">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>118.764328</v>
-      </c>
-      <c r="N27">
-        <v>356.2929839999999</v>
-      </c>
-      <c r="O27">
-        <v>0.1674740084210306</v>
-      </c>
-      <c r="P27">
-        <v>0.1954467673099505</v>
-      </c>
-      <c r="Q27">
-        <v>13.72769155675466</v>
-      </c>
-      <c r="R27">
-        <v>123.549224010792</v>
-      </c>
-      <c r="S27">
-        <v>0.0002047673270177208</v>
-      </c>
-      <c r="T27">
-        <v>0.0002484943216312782</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H28">
-        <v>0.346763</v>
-      </c>
-      <c r="I28">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J28">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>84.53195699999999</v>
-      </c>
-      <c r="N28">
-        <v>253.595871</v>
-      </c>
-      <c r="O28">
-        <v>0.1192016653221344</v>
-      </c>
-      <c r="P28">
-        <v>0.1391116171686985</v>
-      </c>
-      <c r="Q28">
-        <v>9.770851668396999</v>
-      </c>
-      <c r="R28">
-        <v>87.93766501557299</v>
-      </c>
-      <c r="S28">
-        <v>0.0001457456390648454</v>
-      </c>
-      <c r="T28">
-        <v>0.0001768688600745452</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H29">
-        <v>0.346763</v>
-      </c>
-      <c r="I29">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J29">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>139.9082645</v>
-      </c>
-      <c r="N29">
-        <v>279.816529</v>
-      </c>
-      <c r="O29">
-        <v>0.1972898618770847</v>
-      </c>
-      <c r="P29">
-        <v>0.1534951247677137</v>
-      </c>
-      <c r="Q29">
-        <v>16.17166984093783</v>
-      </c>
-      <c r="R29">
-        <v>97.030019045627</v>
-      </c>
-      <c r="S29">
-        <v>0.0002412226114675888</v>
-      </c>
-      <c r="T29">
-        <v>0.0001951562946158769</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H30">
-        <v>0.346763</v>
-      </c>
-      <c r="I30">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J30">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>121.733284</v>
-      </c>
-      <c r="N30">
-        <v>365.199852</v>
-      </c>
-      <c r="O30">
-        <v>0.1716606440086599</v>
-      </c>
-      <c r="P30">
-        <v>0.2003326860218846</v>
-      </c>
-      <c r="Q30">
-        <v>14.07086625323066</v>
-      </c>
-      <c r="R30">
-        <v>126.637796279076</v>
-      </c>
-      <c r="S30">
-        <v>0.0002098862477777761</v>
-      </c>
-      <c r="T30">
-        <v>0.0002547063612192353</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H31">
-        <v>0.346763</v>
-      </c>
-      <c r="I31">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J31">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>79.63570166666668</v>
-      </c>
-      <c r="N31">
-        <v>238.907105</v>
-      </c>
-      <c r="O31">
-        <v>0.1122972730628175</v>
-      </c>
-      <c r="P31">
-        <v>0.1310540017808179</v>
-      </c>
-      <c r="Q31">
-        <v>9.204904939012778</v>
-      </c>
-      <c r="R31">
-        <v>82.84414445111501</v>
-      </c>
-      <c r="S31">
-        <v>0.0001373037682279816</v>
-      </c>
-      <c r="T31">
-        <v>0.0001666242717534611</v>
+        <v>3.271743970382847E-05</v>
       </c>
     </row>
   </sheetData>
